--- a/1.設計書/3_DBテーブル定義書.xlsx
+++ b/1.設計書/3_DBテーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\レベルス\勤怠管理システム\dev\1.設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB56B81C-9139-4983-84C8-4C9DB9C7665F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CCA621-9466-4C03-AC53-E22A3E3218FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="210" windowWidth="22035" windowHeight="15480" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="116">
   <si>
     <t>DB設計</t>
   </si>
@@ -686,6 +686,36 @@
   </si>
   <si>
     <t>日付情報マスタ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>打刻状況区分</t>
+    <rPh sb="0" eb="2">
+      <t>ダコク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>DAKOKU_STATUS_KBN</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>0:出勤中、1:退勤中</t>
+    <rPh sb="2" eb="5">
+      <t>シュッキンチュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タイキン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チュウ</t>
+    </rPh>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -693,7 +723,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -798,6 +828,13 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1160,7 +1197,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1258,6 +1295,42 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1285,45 +1358,30 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1357,6 +1415,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1372,20 +1445,65 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1393,23 +1511,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1420,76 +1526,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1810,7 +1871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2144,28 +2205,28 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="35"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="47"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
@@ -2175,26 +2236,26 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="38"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="50"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
@@ -2204,26 +2265,26 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="41"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="53"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
@@ -2233,28 +2294,28 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="35"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="47"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
@@ -2264,26 +2325,26 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="38"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="50"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
@@ -2293,26 +2354,26 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="41"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="53"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
@@ -2526,28 +2587,28 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="42" t="s">
+      <c r="I25" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="42" t="s">
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="43"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="43"/>
-      <c r="Z25" s="44"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="35"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.4">
@@ -2559,24 +2620,24 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="46"/>
-      <c r="Z26" s="47"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="38"/>
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
@@ -2588,28 +2649,28 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="42" t="s">
+      <c r="I27" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="42" t="s">
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="43"/>
-      <c r="Z27" s="44"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="35"/>
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
@@ -2621,24 +2682,24 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="46"/>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="46"/>
-      <c r="Z28" s="47"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="38"/>
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
@@ -2650,28 +2711,28 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="42" t="s">
+      <c r="I29" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="42" t="s">
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
-      <c r="X29" s="43"/>
-      <c r="Y29" s="43"/>
-      <c r="Z29" s="44"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="35"/>
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
@@ -2683,24 +2744,24 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="46"/>
-      <c r="V30" s="46"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="46"/>
-      <c r="Y30" s="46"/>
-      <c r="Z30" s="47"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="38"/>
       <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.4">
@@ -2712,28 +2773,28 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="42" t="s">
+      <c r="I31" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="48">
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="39">
         <v>45068</v>
       </c>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="49"/>
-      <c r="Z31" s="50"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="41"/>
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
@@ -2745,24 +2806,24 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
-      <c r="Y32" s="52"/>
-      <c r="Z32" s="53"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="44"/>
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.4">
@@ -2774,28 +2835,28 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="42" t="s">
+      <c r="I33" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="42" t="s">
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="43"/>
-      <c r="W33" s="43"/>
-      <c r="X33" s="43"/>
-      <c r="Y33" s="43"/>
-      <c r="Z33" s="44"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="35"/>
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.4">
@@ -2807,24 +2868,24 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="46"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="46"/>
-      <c r="V34" s="46"/>
-      <c r="W34" s="46"/>
-      <c r="X34" s="46"/>
-      <c r="Y34" s="46"/>
-      <c r="Z34" s="47"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="38"/>
       <c r="AA34" s="2"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.4">
@@ -2836,28 +2897,28 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="42" t="s">
+      <c r="I35" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="48">
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="39">
         <v>45068</v>
       </c>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="49"/>
-      <c r="T35" s="49"/>
-      <c r="U35" s="49"/>
-      <c r="V35" s="49"/>
-      <c r="W35" s="49"/>
-      <c r="X35" s="49"/>
-      <c r="Y35" s="49"/>
-      <c r="Z35" s="50"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="41"/>
       <c r="AA35" s="2"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.4">
@@ -2869,28 +2930,34 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52"/>
-      <c r="U36" s="52"/>
-      <c r="V36" s="52"/>
-      <c r="W36" s="52"/>
-      <c r="X36" s="52"/>
-      <c r="Y36" s="52"/>
-      <c r="Z36" s="53"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="43"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="43"/>
+      <c r="Z36" s="44"/>
       <c r="AA36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H12:AA14"/>
+    <mergeCell ref="H15:AA17"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
+    <mergeCell ref="I27:N28"/>
+    <mergeCell ref="O27:Z28"/>
     <mergeCell ref="I35:N36"/>
     <mergeCell ref="O35:Z36"/>
     <mergeCell ref="I29:N30"/>
@@ -2899,12 +2966,6 @@
     <mergeCell ref="O31:Z32"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
-    <mergeCell ref="H12:AA14"/>
-    <mergeCell ref="H15:AA17"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
-    <mergeCell ref="I27:N28"/>
-    <mergeCell ref="O27:Z28"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2957,14 +3018,14 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="57"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -2982,12 +3043,12 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="60"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="67"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -3005,12 +3066,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="63"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="70"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -3044,13 +3105,13 @@
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="54"/>
       <c r="H6" s="54"/>
       <c r="I6" s="54"/>
@@ -3069,11 +3130,11 @@
     </row>
     <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="54"/>
       <c r="H7" s="54"/>
       <c r="I7" s="54"/>
@@ -3092,13 +3153,13 @@
     </row>
     <row r="8" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="54"/>
       <c r="H8" s="54"/>
       <c r="I8" s="54"/>
@@ -3117,11 +3178,11 @@
     </row>
     <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
       <c r="I9" s="54"/>
@@ -3140,13 +3201,13 @@
     </row>
     <row r="10" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="54"/>
       <c r="H10" s="54"/>
       <c r="I10" s="54"/>
@@ -3165,11 +3226,11 @@
     </row>
     <row r="11" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
       <c r="I11" s="54"/>
@@ -3188,13 +3249,13 @@
     </row>
     <row r="12" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="105" t="s">
+      <c r="B12" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="107"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
       <c r="I12" s="54"/>
@@ -3213,11 +3274,11 @@
     </row>
     <row r="13" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="110"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="60"/>
       <c r="G13" s="54"/>
       <c r="H13" s="54"/>
       <c r="I13" s="54"/>
@@ -3236,13 +3297,13 @@
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="107"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
       <c r="I14" s="54"/>
@@ -3261,11 +3322,11 @@
     </row>
     <row r="15" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="110"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="60"/>
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
       <c r="I15" s="54"/>
@@ -3744,30 +3805,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:K19"/>
-    <mergeCell ref="L18:P19"/>
-    <mergeCell ref="Q18:U19"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="G20:K21"/>
-    <mergeCell ref="L20:P21"/>
-    <mergeCell ref="Q20:U21"/>
-    <mergeCell ref="B14:F15"/>
-    <mergeCell ref="G14:K15"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="Q14:U15"/>
-    <mergeCell ref="B16:F17"/>
-    <mergeCell ref="G16:K17"/>
-    <mergeCell ref="L16:P17"/>
-    <mergeCell ref="Q16:U17"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="G10:K11"/>
-    <mergeCell ref="L10:P11"/>
-    <mergeCell ref="Q10:U11"/>
-    <mergeCell ref="B12:F13"/>
-    <mergeCell ref="G12:K13"/>
-    <mergeCell ref="L12:P13"/>
-    <mergeCell ref="Q12:U13"/>
     <mergeCell ref="B8:F9"/>
     <mergeCell ref="G8:K9"/>
     <mergeCell ref="L8:P9"/>
@@ -3777,6 +3814,30 @@
     <mergeCell ref="G6:K7"/>
     <mergeCell ref="L6:P7"/>
     <mergeCell ref="Q6:U7"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="G10:K11"/>
+    <mergeCell ref="L10:P11"/>
+    <mergeCell ref="Q10:U11"/>
+    <mergeCell ref="B12:F13"/>
+    <mergeCell ref="G12:K13"/>
+    <mergeCell ref="L12:P13"/>
+    <mergeCell ref="Q12:U13"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="G14:K15"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="Q14:U15"/>
+    <mergeCell ref="B16:F17"/>
+    <mergeCell ref="G16:K17"/>
+    <mergeCell ref="L16:P17"/>
+    <mergeCell ref="Q16:U17"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:K19"/>
+    <mergeCell ref="L18:P19"/>
+    <mergeCell ref="Q18:U19"/>
+    <mergeCell ref="B20:F21"/>
+    <mergeCell ref="G20:K21"/>
+    <mergeCell ref="L20:P21"/>
+    <mergeCell ref="Q20:U21"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <hyperlinks>
@@ -3811,40 +3872,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
       <c r="I1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="J1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="68"/>
+      <c r="K1" s="80"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
       <c r="I2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="69">
+      <c r="J2" s="81">
         <v>45068</v>
       </c>
-      <c r="K2" s="68"/>
+      <c r="K2" s="80"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="29"/>
@@ -3869,22 +3930,22 @@
       <c r="C4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70" t="s">
+      <c r="E4" s="82"/>
+      <c r="F4" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70" t="s">
+      <c r="G4" s="82"/>
+      <c r="H4" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="I4" s="82"/>
+      <c r="J4" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="70"/>
+      <c r="K4" s="82"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="26">
@@ -3896,22 +3957,22 @@
       <c r="C5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65" t="s">
+      <c r="E5" s="72"/>
+      <c r="F5" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65" t="s">
+      <c r="G5" s="72"/>
+      <c r="H5" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="65"/>
-      <c r="J5" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="64"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="71"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="26">
@@ -3923,22 +3984,22 @@
       <c r="C6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65" t="s">
+      <c r="E6" s="72"/>
+      <c r="F6" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65" t="s">
+      <c r="G6" s="72"/>
+      <c r="H6" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="64"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="71"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="26">
@@ -3950,22 +4011,22 @@
       <c r="C7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65" t="s">
+      <c r="E7" s="72"/>
+      <c r="F7" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65" t="s">
+      <c r="G7" s="72"/>
+      <c r="H7" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="65"/>
-      <c r="J7" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="64"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="71"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="26">
@@ -3977,22 +4038,22 @@
       <c r="C8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65" t="s">
+      <c r="E8" s="72"/>
+      <c r="F8" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65" t="s">
+      <c r="G8" s="72"/>
+      <c r="H8" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="65"/>
-      <c r="J8" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="64"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="71"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="26">
@@ -4000,14 +4061,14 @@
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="26"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="64"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="71"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="26">
@@ -4015,14 +4076,14 @@
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="26"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="26">
@@ -4030,14 +4091,14 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="26"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="26">
@@ -4045,14 +4106,14 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="26"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="26">
@@ -4064,10 +4125,10 @@
       <c r="E13" s="74"/>
       <c r="F13" s="73"/>
       <c r="G13" s="74"/>
-      <c r="H13" s="65"/>
+      <c r="H13" s="72"/>
       <c r="I13" s="75"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="26">
@@ -4075,14 +4136,14 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="26"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="26">
@@ -4090,14 +4151,14 @@
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="26"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="26">
@@ -4105,14 +4166,14 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="26"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="26">
@@ -4120,14 +4181,14 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="26"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="26">
@@ -4135,14 +4196,14 @@
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="26">
@@ -4150,14 +4211,14 @@
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="26"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="26">
@@ -4165,14 +4226,14 @@
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="26"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="26">
@@ -4180,14 +4241,14 @@
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
     </row>
     <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="26">
@@ -4195,14 +4256,14 @@
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
     </row>
     <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26">
@@ -4210,17 +4271,89 @@
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
@@ -4233,78 +4366,6 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4338,26 +4399,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="91"/>
+      <c r="B1" s="87"/>
       <c r="C1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
       <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
@@ -4367,30 +4428,30 @@
       <c r="O1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="95" t="s">
+      <c r="P1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="95"/>
+      <c r="Q1" s="91"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96" t="s">
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
       <c r="M2" s="6" t="s">
         <v>8</v>
       </c>
@@ -4400,10 +4461,10 @@
       <c r="O2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="97">
+      <c r="P2" s="93">
         <v>45068</v>
       </c>
-      <c r="Q2" s="95"/>
+      <c r="Q2" s="91"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9"/>
@@ -4425,46 +4486,46 @@
       <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="99" t="s">
+      <c r="B4" s="94"/>
+      <c r="C4" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="98"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="19" t="s">
@@ -4494,18 +4555,18 @@
       <c r="I6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="100" t="s">
+      <c r="J6" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100" t="s">
+      <c r="K6" s="96"/>
+      <c r="L6" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15">
@@ -4535,18 +4596,18 @@
       <c r="I7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="101" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="102"/>
-      <c r="L7" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="86"/>
+      <c r="J7" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="98"/>
+      <c r="L7" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="109"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15">
@@ -4576,18 +4637,18 @@
       <c r="I8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="87"/>
-      <c r="L8" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
+      <c r="J8" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="99"/>
+      <c r="L8" s="106" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="106"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15">
@@ -4617,18 +4678,18 @@
       <c r="I9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="87"/>
-      <c r="L9" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
+      <c r="J9" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="99"/>
+      <c r="L9" s="106" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="106"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15">
@@ -4658,18 +4719,18 @@
       <c r="I10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="87"/>
-      <c r="L10" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
+      <c r="J10" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="99"/>
+      <c r="L10" s="106" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="106"/>
+      <c r="N10" s="106"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="106"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15">
@@ -4699,18 +4760,18 @@
       <c r="I11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="87"/>
-      <c r="L11" s="78" t="s">
+      <c r="J11" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="99"/>
+      <c r="L11" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="80"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="102"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="15">
@@ -4740,10 +4801,10 @@
       <c r="I12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="77"/>
+      <c r="J12" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="104"/>
       <c r="L12" s="30" t="s">
         <v>53</v>
       </c>
@@ -4781,18 +4842,18 @@
       <c r="I13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="77"/>
-      <c r="L13" s="81" t="s">
+      <c r="J13" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="104"/>
+      <c r="L13" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="83"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="85"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="15">
@@ -4822,18 +4883,18 @@
       <c r="I14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="77"/>
-      <c r="L14" s="78" t="s">
+      <c r="J14" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="104"/>
+      <c r="L14" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="80"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="102"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="15">
@@ -4863,18 +4924,18 @@
       <c r="I15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="77"/>
-      <c r="L15" s="78" t="s">
+      <c r="J15" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="104"/>
+      <c r="L15" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="80"/>
+      <c r="M15" s="101"/>
+      <c r="N15" s="101"/>
+      <c r="O15" s="101"/>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="102"/>
     </row>
     <row r="16" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="15">
@@ -4887,14 +4948,14 @@
       <c r="G16" s="16"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="80"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="102"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="15">
@@ -4908,14 +4969,14 @@
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="80"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="102"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="15">
@@ -4929,14 +4990,14 @@
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="88"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="88"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="106"/>
+      <c r="Q18" s="106"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="15">
@@ -4950,14 +5011,14 @@
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="83"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="85"/>
     </row>
     <row r="20" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="15">
@@ -4971,14 +5032,14 @@
       <c r="G20" s="16"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="83"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="85"/>
     </row>
     <row r="21" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="15">
@@ -4992,14 +5053,14 @@
       <c r="G21" s="16"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="83"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="85"/>
     </row>
     <row r="22" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="15">
@@ -5013,14 +5074,14 @@
       <c r="G22" s="16"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="83"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="85"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="15">
@@ -5034,14 +5095,14 @@
       <c r="G23" s="16"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="80"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="101"/>
+      <c r="N23" s="101"/>
+      <c r="O23" s="101"/>
+      <c r="P23" s="101"/>
+      <c r="Q23" s="102"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="15">
@@ -5055,14 +5116,14 @@
       <c r="G24" s="16"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="86"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="108"/>
+      <c r="Q24" s="109"/>
     </row>
     <row r="25" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="15"/>
@@ -5074,17 +5135,49 @@
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="89"/>
-      <c r="Q25" s="89"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="105"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:Q21"/>
     <mergeCell ref="L22:Q22"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -5101,38 +5194,6 @@
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:Q25"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="J15:K15"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5144,8 +5205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C793F1B1-C6B7-414C-A142-32457320D7BB}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5166,26 +5227,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="91"/>
+      <c r="B1" s="87"/>
       <c r="C1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
       <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
@@ -5195,30 +5256,30 @@
       <c r="O1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="95" t="s">
+      <c r="P1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="95"/>
+      <c r="Q1" s="91"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96" t="s">
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
       <c r="M2" s="6" t="s">
         <v>8</v>
       </c>
@@ -5228,10 +5289,10 @@
       <c r="O2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="97">
-        <v>45068</v>
-      </c>
-      <c r="Q2" s="95"/>
+      <c r="P2" s="93">
+        <v>45075</v>
+      </c>
+      <c r="Q2" s="91"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9"/>
@@ -5253,46 +5314,46 @@
       <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="99" t="s">
+      <c r="B4" s="94"/>
+      <c r="C4" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="98"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="19" t="s">
@@ -5322,18 +5383,18 @@
       <c r="I6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="100" t="s">
+      <c r="J6" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100" t="s">
+      <c r="K6" s="96"/>
+      <c r="L6" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15">
@@ -5363,18 +5424,18 @@
       <c r="I7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="101" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="102"/>
-      <c r="L7" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="86"/>
+      <c r="J7" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="98"/>
+      <c r="L7" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="109"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15">
@@ -5404,18 +5465,18 @@
       <c r="I8" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="101" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="102"/>
-      <c r="L8" s="78" t="s">
+      <c r="J8" s="103">
+        <v>0</v>
+      </c>
+      <c r="K8" s="104"/>
+      <c r="L8" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="79"/>
-      <c r="Q8" s="80"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="102"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15">
@@ -5445,18 +5506,18 @@
       <c r="I9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="87"/>
-      <c r="L9" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="86"/>
+      <c r="J9" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="99"/>
+      <c r="L9" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="109"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15">
@@ -5486,18 +5547,18 @@
       <c r="I10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="87"/>
-      <c r="L10" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="86"/>
+      <c r="J10" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="99"/>
+      <c r="L10" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="109"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15">
@@ -5527,41 +5588,59 @@
       <c r="I11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="76">
+      <c r="J11" s="103">
         <v>0</v>
       </c>
-      <c r="K11" s="77"/>
-      <c r="L11" s="78" t="s">
+      <c r="K11" s="104"/>
+      <c r="L11" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="80"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="102"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="15">
         <v>6</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="86"/>
+      <c r="B12" s="111" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="111" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="111" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="113" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="114">
+        <v>0</v>
+      </c>
+      <c r="K12" s="115"/>
+      <c r="L12" s="116" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" s="117"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="118"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="15">
@@ -5575,14 +5654,14 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="86"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
+      <c r="Q13" s="109"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="15">
@@ -5596,14 +5675,14 @@
       <c r="G14" s="16"/>
       <c r="H14" s="17"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="86"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="108"/>
+      <c r="Q14" s="109"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="15">
@@ -5617,14 +5696,14 @@
       <c r="G15" s="16"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="86"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="109"/>
     </row>
     <row r="16" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="15">
@@ -5638,14 +5717,14 @@
       <c r="G16" s="16"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="80"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="102"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="15">
@@ -5659,14 +5738,14 @@
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="103"/>
-      <c r="P17" s="103"/>
-      <c r="Q17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="15">
@@ -5680,14 +5759,14 @@
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="103"/>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="103"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="110"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="110"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="15">
@@ -5701,14 +5780,14 @@
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="80"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="101"/>
+      <c r="O19" s="101"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="102"/>
     </row>
     <row r="20" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="15">
@@ -5722,14 +5801,14 @@
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="103"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="103"/>
-      <c r="P20" s="103"/>
-      <c r="Q20" s="103"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
+      <c r="N20" s="110"/>
+      <c r="O20" s="110"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="110"/>
     </row>
     <row r="21" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="15">
@@ -5743,14 +5822,14 @@
       <c r="G21" s="16"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="83"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="85"/>
     </row>
     <row r="22" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="15">
@@ -5764,14 +5843,14 @@
       <c r="G22" s="16"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="83"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="85"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="15">
@@ -5785,14 +5864,14 @@
       <c r="G23" s="16"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="83"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="85"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="15">
@@ -5806,14 +5885,14 @@
       <c r="G24" s="16"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="83"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="85"/>
     </row>
     <row r="25" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="15">
@@ -5827,14 +5906,14 @@
       <c r="G25" s="16"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="80"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="101"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="102"/>
     </row>
     <row r="26" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="15">
@@ -5848,14 +5927,14 @@
       <c r="G26" s="16"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="80"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="101"/>
+      <c r="O26" s="101"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="102"/>
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="15"/>
@@ -5867,17 +5946,54 @@
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="103"/>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="103"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="110"/>
+      <c r="O27" s="110"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:Q5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:Q19"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="L26:Q26"/>
     <mergeCell ref="J27:K27"/>
@@ -5894,43 +6010,6 @@
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="L21:Q21"/>
     <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:Q5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5943,7 +6022,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5964,26 +6043,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="91"/>
+      <c r="B1" s="87"/>
       <c r="C1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
       <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
@@ -5993,30 +6072,30 @@
       <c r="O1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="95" t="s">
+      <c r="P1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="95"/>
+      <c r="Q1" s="91"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96" t="s">
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
       <c r="M2" s="6" t="s">
         <v>8</v>
       </c>
@@ -6026,10 +6105,10 @@
       <c r="O2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="97">
+      <c r="P2" s="93">
         <v>45068</v>
       </c>
-      <c r="Q2" s="95"/>
+      <c r="Q2" s="91"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9"/>
@@ -6051,46 +6130,46 @@
       <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="99" t="s">
+      <c r="B4" s="94"/>
+      <c r="C4" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="98"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="19" t="s">
@@ -6120,18 +6199,18 @@
       <c r="I6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="100" t="s">
+      <c r="J6" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100" t="s">
+      <c r="K6" s="96"/>
+      <c r="L6" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15">
@@ -6161,18 +6240,18 @@
       <c r="I7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="101" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="102"/>
-      <c r="L7" s="78" t="s">
+      <c r="J7" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="98"/>
+      <c r="L7" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="80"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="102"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15">
@@ -6202,18 +6281,18 @@
       <c r="I8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="76" t="s">
+      <c r="J8" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="77"/>
-      <c r="L8" s="78" t="s">
+      <c r="K8" s="104"/>
+      <c r="L8" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="79"/>
-      <c r="Q8" s="80"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="102"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15">
@@ -6243,18 +6322,18 @@
       <c r="I9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="76" t="s">
+      <c r="J9" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="77"/>
-      <c r="L9" s="78" t="s">
+      <c r="K9" s="104"/>
+      <c r="L9" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="80"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="102"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15">
@@ -6268,14 +6347,14 @@
       <c r="G10" s="16"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="86"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="109"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15">
@@ -6289,14 +6368,14 @@
       <c r="G11" s="16"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="80"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="102"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="15">
@@ -6310,14 +6389,14 @@
       <c r="G12" s="16"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="86"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="108"/>
+      <c r="Q12" s="109"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="15">
@@ -6331,14 +6410,14 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="86"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
+      <c r="Q13" s="109"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="15">
@@ -6352,14 +6431,14 @@
       <c r="G14" s="16"/>
       <c r="H14" s="17"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="86"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="108"/>
+      <c r="Q14" s="109"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="15">
@@ -6373,14 +6452,14 @@
       <c r="G15" s="16"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="86"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="109"/>
     </row>
     <row r="16" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="15">
@@ -6394,14 +6473,14 @@
       <c r="G16" s="16"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="80"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="102"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="15">
@@ -6415,14 +6494,14 @@
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="103"/>
-      <c r="P17" s="103"/>
-      <c r="Q17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="15">
@@ -6436,14 +6515,14 @@
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="103"/>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="103"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="110"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="110"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="15">
@@ -6457,14 +6536,14 @@
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="80"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="101"/>
+      <c r="O19" s="101"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="102"/>
     </row>
     <row r="20" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="15">
@@ -6478,14 +6557,14 @@
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="103"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="103"/>
-      <c r="P20" s="103"/>
-      <c r="Q20" s="103"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
+      <c r="N20" s="110"/>
+      <c r="O20" s="110"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="110"/>
     </row>
     <row r="21" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="15">
@@ -6499,14 +6578,14 @@
       <c r="G21" s="16"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="83"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="85"/>
     </row>
     <row r="22" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="15">
@@ -6520,14 +6599,14 @@
       <c r="G22" s="16"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="83"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="85"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="15">
@@ -6541,14 +6620,14 @@
       <c r="G23" s="16"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="83"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="85"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="15">
@@ -6562,14 +6641,14 @@
       <c r="G24" s="16"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="83"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="85"/>
     </row>
     <row r="25" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="15">
@@ -6583,14 +6662,14 @@
       <c r="G25" s="16"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="80"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="101"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="102"/>
     </row>
     <row r="26" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="15">
@@ -6604,14 +6683,14 @@
       <c r="G26" s="16"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="80"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="101"/>
+      <c r="O26" s="101"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="102"/>
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="15"/>
@@ -6623,60 +6702,17 @@
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="103"/>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="103"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="110"/>
+      <c r="O27" s="110"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:Q5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:Q22"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="L26:Q26"/>
     <mergeCell ref="J27:K27"/>
@@ -6687,6 +6723,49 @@
     <mergeCell ref="L24:Q24"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:Q5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6720,26 +6799,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="91"/>
+      <c r="B1" s="87"/>
       <c r="C1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
       <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
@@ -6749,30 +6828,30 @@
       <c r="O1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="95" t="s">
+      <c r="P1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="95"/>
+      <c r="Q1" s="91"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96" t="s">
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
       <c r="M2" s="6" t="s">
         <v>8</v>
       </c>
@@ -6782,10 +6861,10 @@
       <c r="O2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="97">
+      <c r="P2" s="93">
         <v>45068</v>
       </c>
-      <c r="Q2" s="95"/>
+      <c r="Q2" s="91"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9"/>
@@ -6807,46 +6886,46 @@
       <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="99" t="s">
+      <c r="B4" s="94"/>
+      <c r="C4" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="98"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="19" t="s">
@@ -6876,18 +6955,18 @@
       <c r="I6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="100" t="s">
+      <c r="J6" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100" t="s">
+      <c r="K6" s="96"/>
+      <c r="L6" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15">
@@ -6917,18 +6996,18 @@
       <c r="I7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="101" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="102"/>
-      <c r="L7" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="86"/>
+      <c r="J7" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="98"/>
+      <c r="L7" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="109"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15">
@@ -6958,18 +7037,18 @@
       <c r="I8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="76" t="s">
+      <c r="J8" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="77"/>
-      <c r="L8" s="78" t="s">
+      <c r="K8" s="104"/>
+      <c r="L8" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="79"/>
-      <c r="Q8" s="80"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="102"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15">
@@ -6999,18 +7078,18 @@
       <c r="I9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="76" t="s">
+      <c r="J9" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="77"/>
-      <c r="L9" s="78" t="s">
+      <c r="K9" s="104"/>
+      <c r="L9" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="80"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="102"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15">
@@ -7040,18 +7119,18 @@
       <c r="I10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="87"/>
-      <c r="L10" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="86"/>
+      <c r="J10" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="99"/>
+      <c r="L10" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="109"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15">
@@ -7081,18 +7160,18 @@
       <c r="I11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="87"/>
-      <c r="L11" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="86"/>
+      <c r="J11" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="99"/>
+      <c r="L11" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="108"/>
+      <c r="Q11" s="109"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="15">
@@ -7122,18 +7201,18 @@
       <c r="I12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="87"/>
-      <c r="L12" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="86"/>
+      <c r="J12" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="99"/>
+      <c r="L12" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="108"/>
+      <c r="Q12" s="109"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="15">
@@ -7147,14 +7226,14 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="86"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
+      <c r="Q13" s="109"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="15">
@@ -7168,14 +7247,14 @@
       <c r="G14" s="16"/>
       <c r="H14" s="17"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="86"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="108"/>
+      <c r="Q14" s="109"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="15">
@@ -7189,14 +7268,14 @@
       <c r="G15" s="16"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="86"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="109"/>
     </row>
     <row r="16" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="15">
@@ -7210,14 +7289,14 @@
       <c r="G16" s="16"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="80"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="102"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="15">
@@ -7231,14 +7310,14 @@
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="103"/>
-      <c r="P17" s="103"/>
-      <c r="Q17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="15">
@@ -7252,14 +7331,14 @@
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="103"/>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="103"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="110"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="110"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="15">
@@ -7273,14 +7352,14 @@
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="80"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="101"/>
+      <c r="O19" s="101"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="102"/>
     </row>
     <row r="20" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="15">
@@ -7294,14 +7373,14 @@
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="103"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="103"/>
-      <c r="P20" s="103"/>
-      <c r="Q20" s="103"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
+      <c r="N20" s="110"/>
+      <c r="O20" s="110"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="110"/>
     </row>
     <row r="21" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="15">
@@ -7315,14 +7394,14 @@
       <c r="G21" s="16"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="83"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="85"/>
     </row>
     <row r="22" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="15">
@@ -7336,14 +7415,14 @@
       <c r="G22" s="16"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="83"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="85"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="15">
@@ -7357,14 +7436,14 @@
       <c r="G23" s="16"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="83"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="85"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="15">
@@ -7378,14 +7457,14 @@
       <c r="G24" s="16"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="83"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="85"/>
     </row>
     <row r="25" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="15">
@@ -7399,14 +7478,14 @@
       <c r="G25" s="16"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="80"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="101"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="102"/>
     </row>
     <row r="26" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="15">
@@ -7420,14 +7499,14 @@
       <c r="G26" s="16"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="80"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="101"/>
+      <c r="O26" s="101"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="102"/>
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="15"/>
@@ -7439,60 +7518,17 @@
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="103"/>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="103"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="110"/>
+      <c r="O27" s="110"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:Q5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:Q22"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="L26:Q26"/>
     <mergeCell ref="J27:K27"/>
@@ -7503,6 +7539,49 @@
     <mergeCell ref="L24:Q24"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:Q5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.設計書/3_DBテーブル定義書.xlsx
+++ b/1.設計書/3_DBテーブル定義書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\レベルス\勤怠管理システム\dev\1.設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CCA621-9466-4C03-AC53-E22A3E3218FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8903B3E0-B7AD-410F-8AE2-AC18E8A567F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="210" windowWidth="22035" windowHeight="15480" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1845" yWindow="0" windowWidth="22035" windowHeight="15480" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,13 @@
     <sheet name="0.変更履歴" sheetId="3" r:id="rId3"/>
     <sheet name="1.m_user" sheetId="5" r:id="rId4"/>
     <sheet name="2.m_dakoku" sheetId="7" r:id="rId5"/>
-    <sheet name="3.m_date" sheetId="9" r:id="rId6"/>
-    <sheet name="4.m_mail" sheetId="10" r:id="rId7"/>
+    <sheet name="3.m_mail" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'0.変更履歴'!$A$3:$K$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.m_user'!$A$3:$Q$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2.m_dakoku'!$A$3:$Q$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'3.m_date'!$A$3:$Q$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'4.m_mail'!$A$3:$Q$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'3.m_mail'!$A$3:$Q$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">一覧!$A$1:$V$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AH$38</definedName>
   </definedNames>
@@ -46,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="109">
   <si>
     <t>DB設計</t>
   </si>
@@ -364,30 +362,6 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>日付</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>MAIN_DATE</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>共通して使用する日付</t>
-    <rPh sb="0" eb="2">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒヅケ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -437,87 +411,7 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>日付を保持するマスタ</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>KBN_DATE</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>他テーブルで使用する何の日付を利用しているかを表す。</t>
-    <rPh sb="0" eb="1">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ナン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>アラワ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>日付区分</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>クブン</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>日付情報マスタ</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>m_date</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>曜日</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウビ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>DAY_OF_WEEK</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>日付に対応する曜日</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヨウビ</t>
-    </rPh>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -677,10 +571,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>2 ・・・ 日付情報マスタ</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>3 ・・・ 申請情報マスタ</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -715,6 +605,41 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>打刻日付</t>
+    <rPh sb="0" eb="2">
+      <t>ダコク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>DAKOKU_DATE</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>打刻した日付</t>
+    <rPh sb="0" eb="2">
+      <t>ダコク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>消去</t>
+    <rPh sb="0" eb="2">
+      <t>ショウキョ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -1295,6 +1220,42 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1331,36 +1292,39 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1379,42 +1343,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1424,25 +1379,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1454,6 +1391,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1493,51 +1460,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1551,6 +1473,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1871,7 +1796,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2205,28 +2132,28 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="45" t="s">
+      <c r="H12" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="47"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="38"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
@@ -2236,26 +2163,26 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="50"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="41"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
@@ -2265,26 +2192,26 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="52"/>
-      <c r="AA14" s="53"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="44"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
@@ -2294,28 +2221,28 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="45" t="s">
+      <c r="H15" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="46"/>
-      <c r="AA15" s="47"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="38"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
@@ -2325,26 +2252,26 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="50"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="41"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
@@ -2354,26 +2281,26 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="53"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="44"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
@@ -2587,28 +2514,28 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="33" t="s">
+      <c r="I25" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="33" t="s">
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="35"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="47"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.4">
@@ -2620,24 +2547,24 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="38"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="50"/>
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
@@ -2649,28 +2576,28 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="33" t="s">
+      <c r="I27" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="33" t="s">
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="35"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="47"/>
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
@@ -2682,24 +2609,24 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="38"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="50"/>
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
@@ -2711,28 +2638,28 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="33" t="s">
+      <c r="I29" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="33" t="s">
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="34"/>
-      <c r="W29" s="34"/>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="35"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="47"/>
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
@@ -2744,24 +2671,24 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="38"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="49"/>
+      <c r="Y30" s="49"/>
+      <c r="Z30" s="50"/>
       <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.4">
@@ -2773,28 +2700,28 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="33" t="s">
+      <c r="I31" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="39">
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="51">
         <v>45068</v>
       </c>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="40"/>
-      <c r="T31" s="40"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="40"/>
-      <c r="W31" s="40"/>
-      <c r="X31" s="40"/>
-      <c r="Y31" s="40"/>
-      <c r="Z31" s="41"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="52"/>
+      <c r="Z31" s="53"/>
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
@@ -2806,24 +2733,24 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="43"/>
-      <c r="X32" s="43"/>
-      <c r="Y32" s="43"/>
-      <c r="Z32" s="44"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="55"/>
+      <c r="T32" s="55"/>
+      <c r="U32" s="55"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="55"/>
+      <c r="Y32" s="55"/>
+      <c r="Z32" s="56"/>
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.4">
@@ -2835,28 +2762,28 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="33" t="s">
+      <c r="I33" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="33" t="s">
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="35"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="46"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="47"/>
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.4">
@@ -2868,24 +2795,24 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="38"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="49"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="49"/>
+      <c r="Z34" s="50"/>
       <c r="AA34" s="2"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.4">
@@ -2897,28 +2824,28 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="33" t="s">
+      <c r="I35" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="39">
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="51">
         <v>45068</v>
       </c>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="40"/>
-      <c r="X35" s="40"/>
-      <c r="Y35" s="40"/>
-      <c r="Z35" s="41"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="52"/>
+      <c r="Z35" s="53"/>
       <c r="AA35" s="2"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.4">
@@ -2930,34 +2857,28 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
-      <c r="X36" s="43"/>
-      <c r="Y36" s="43"/>
-      <c r="Z36" s="44"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="55"/>
+      <c r="V36" s="55"/>
+      <c r="W36" s="55"/>
+      <c r="X36" s="55"/>
+      <c r="Y36" s="55"/>
+      <c r="Z36" s="56"/>
       <c r="AA36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H12:AA14"/>
-    <mergeCell ref="H15:AA17"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
-    <mergeCell ref="I27:N28"/>
-    <mergeCell ref="O27:Z28"/>
     <mergeCell ref="I35:N36"/>
     <mergeCell ref="O35:Z36"/>
     <mergeCell ref="I29:N30"/>
@@ -2966,6 +2887,12 @@
     <mergeCell ref="O31:Z32"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
+    <mergeCell ref="H12:AA14"/>
+    <mergeCell ref="H15:AA17"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
+    <mergeCell ref="I27:N28"/>
+    <mergeCell ref="O27:Z28"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2978,7 +2905,7 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:F9"/>
+      <selection activeCell="G16" sqref="G16:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3018,14 +2945,14 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="61"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -3043,12 +2970,12 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="67"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="64"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -3066,12 +2993,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="70"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="67"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -3105,381 +3032,379 @@
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
+      <c r="B6" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
     </row>
     <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
     </row>
     <row r="8" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
+      <c r="B8" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
     </row>
     <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
     </row>
     <row r="10" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
+      <c r="B10" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
     </row>
     <row r="12" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="54"/>
+      <c r="B12" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
     </row>
     <row r="13" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
     </row>
     <row r="15" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
     </row>
     <row r="16" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
     </row>
     <row r="17" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="58"/>
     </row>
     <row r="18" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
     </row>
     <row r="19" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
     </row>
     <row r="20" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
     </row>
     <row r="21" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
     </row>
     <row r="22" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
@@ -3805,6 +3730,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:K19"/>
+    <mergeCell ref="L18:P19"/>
+    <mergeCell ref="Q18:U19"/>
+    <mergeCell ref="B20:F21"/>
+    <mergeCell ref="G20:K21"/>
+    <mergeCell ref="L20:P21"/>
+    <mergeCell ref="Q20:U21"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="G14:K15"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="Q14:U15"/>
+    <mergeCell ref="B16:F17"/>
+    <mergeCell ref="G16:K17"/>
+    <mergeCell ref="L16:P17"/>
+    <mergeCell ref="Q16:U17"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="G10:K11"/>
+    <mergeCell ref="L10:P11"/>
+    <mergeCell ref="Q10:U11"/>
+    <mergeCell ref="B12:F13"/>
+    <mergeCell ref="G12:K13"/>
+    <mergeCell ref="L12:P13"/>
+    <mergeCell ref="Q12:U13"/>
     <mergeCell ref="B8:F9"/>
     <mergeCell ref="G8:K9"/>
     <mergeCell ref="L8:P9"/>
@@ -3814,38 +3763,13 @@
     <mergeCell ref="G6:K7"/>
     <mergeCell ref="L6:P7"/>
     <mergeCell ref="Q6:U7"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="G10:K11"/>
-    <mergeCell ref="L10:P11"/>
-    <mergeCell ref="Q10:U11"/>
-    <mergeCell ref="B12:F13"/>
-    <mergeCell ref="G12:K13"/>
-    <mergeCell ref="L12:P13"/>
-    <mergeCell ref="Q12:U13"/>
-    <mergeCell ref="B14:F15"/>
-    <mergeCell ref="G14:K15"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="Q14:U15"/>
-    <mergeCell ref="B16:F17"/>
-    <mergeCell ref="G16:K17"/>
-    <mergeCell ref="L16:P17"/>
-    <mergeCell ref="Q16:U17"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:K19"/>
-    <mergeCell ref="L18:P19"/>
-    <mergeCell ref="Q18:U19"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="G20:K21"/>
-    <mergeCell ref="L20:P21"/>
-    <mergeCell ref="Q20:U21"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <hyperlinks>
     <hyperlink ref="B6:F7" location="'0.変更履歴'!A1" display="0 ・・・・・ 変更履歴" xr:uid="{BCD35FE4-A7BE-488D-8821-C796F562E626}"/>
     <hyperlink ref="B8:F9" location="'1.m_user'!A1" display="1 ・・・ 打刻情報マスタ" xr:uid="{395DD608-C9D2-44E0-9CF5-98CAE8D363BE}"/>
     <hyperlink ref="B10:F11" location="'2.m_dakoku'!A1" display="2・・・ 打刻情報マスタ" xr:uid="{ADA63CC2-125A-4320-B0F1-423E24BBF509}"/>
-    <hyperlink ref="B12:F13" location="'3.m_date'!A1" display="2 ・・・ 日付情報マスタ" xr:uid="{836CE206-7B8B-453F-9C1C-4102D0F81A90}"/>
-    <hyperlink ref="B14:F15" location="'4.m_mail'!A1" display="3 ・・・ 申請情報マスタ" xr:uid="{C37B4F14-7613-476A-9754-75D6FAD9DF23}"/>
+    <hyperlink ref="B12:F13" location="'4.m_mail'!A1" display="3 ・・・ 申請情報マスタ" xr:uid="{7828B58B-332E-4C5B-9F37-06EA973C5E87}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
@@ -3857,7 +3781,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="H10" sqref="H10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3872,40 +3796,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
       <c r="I1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="80" t="s">
+      <c r="J1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="80"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
       <c r="I2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="81">
+      <c r="J2" s="79">
         <v>45068</v>
       </c>
-      <c r="K2" s="80"/>
+      <c r="K2" s="78"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="29"/>
@@ -3930,22 +3854,22 @@
       <c r="C4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82" t="s">
+      <c r="E4" s="80"/>
+      <c r="F4" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82" t="s">
+      <c r="G4" s="80"/>
+      <c r="H4" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82" t="s">
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="82"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="26">
@@ -3957,22 +3881,22 @@
       <c r="C5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72" t="s">
+      <c r="E5" s="75"/>
+      <c r="F5" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72" t="s">
+      <c r="G5" s="75"/>
+      <c r="H5" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="72"/>
-      <c r="J5" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="71"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="74"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="26">
@@ -3984,22 +3908,22 @@
       <c r="C6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72" t="s">
+      <c r="E6" s="75"/>
+      <c r="F6" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72" t="s">
+      <c r="G6" s="75"/>
+      <c r="H6" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="72"/>
-      <c r="J6" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="71"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="74"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="26">
@@ -4011,22 +3935,22 @@
       <c r="C7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="72" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72" t="s">
+      <c r="D7" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="71"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="74"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="26">
@@ -4038,37 +3962,49 @@
       <c r="C8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72" t="s">
+      <c r="D8" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="72"/>
-      <c r="J8" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="71"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="74"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="26">
         <v>5</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="71"/>
+      <c r="B9" s="25">
+        <v>45099</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="75"/>
+      <c r="J9" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="74"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="26">
@@ -4076,14 +4012,14 @@
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="26"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="26">
@@ -4091,14 +4027,14 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="26"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="26">
@@ -4106,14 +4042,14 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="26"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="26">
@@ -4121,14 +4057,14 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="26"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="26">
@@ -4136,14 +4072,14 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="26"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="26">
@@ -4151,14 +4087,14 @@
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="26"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="26">
@@ -4166,14 +4102,14 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="26"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="26">
@@ -4181,14 +4117,14 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="26"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="26">
@@ -4196,14 +4132,14 @@
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="26">
@@ -4211,14 +4147,14 @@
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="26"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="26">
@@ -4226,14 +4162,14 @@
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="26"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="26">
@@ -4241,14 +4177,14 @@
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
     </row>
     <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="26">
@@ -4256,14 +4192,14 @@
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
     </row>
     <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26">
@@ -4271,89 +4207,17 @@
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
@@ -4366,6 +4230,78 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4377,8 +4313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9079E9D9-E539-4474-A075-37C1D8053EAD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4399,26 +4335,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="87"/>
+      <c r="B1" s="101"/>
       <c r="C1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90" t="s">
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
       <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
@@ -4428,30 +4364,30 @@
       <c r="O1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="91" t="s">
+      <c r="P1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="91"/>
+      <c r="Q1" s="105"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
       <c r="C2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92" t="s">
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
       <c r="M2" s="6" t="s">
         <v>8</v>
       </c>
@@ -4461,10 +4397,10 @@
       <c r="O2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="93">
+      <c r="P2" s="107">
         <v>45068</v>
       </c>
-      <c r="Q2" s="91"/>
+      <c r="Q2" s="105"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9"/>
@@ -4486,46 +4422,46 @@
       <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="95" t="s">
+      <c r="B4" s="108"/>
+      <c r="C4" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="94"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="19" t="s">
@@ -4555,18 +4491,18 @@
       <c r="I6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="96" t="s">
+      <c r="J6" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96" t="s">
+      <c r="K6" s="110"/>
+      <c r="L6" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="96"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="110"/>
+      <c r="Q6" s="110"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15">
@@ -4596,18 +4532,18 @@
       <c r="I7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="97" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="98"/>
-      <c r="L7" s="107" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="109"/>
+      <c r="J7" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="112"/>
+      <c r="L7" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="92"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15">
@@ -4637,18 +4573,18 @@
       <c r="I8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="99"/>
-      <c r="L8" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="106"/>
+      <c r="J8" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="86"/>
+      <c r="L8" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="93"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15">
@@ -4678,18 +4614,18 @@
       <c r="I9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="99"/>
-      <c r="L9" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
+      <c r="J9" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="86"/>
+      <c r="L9" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15">
@@ -4719,18 +4655,18 @@
       <c r="I10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="99"/>
-      <c r="L10" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
+      <c r="J10" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="86"/>
+      <c r="L10" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15">
@@ -4760,18 +4696,18 @@
       <c r="I11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="99"/>
-      <c r="L11" s="100" t="s">
+      <c r="J11" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="86"/>
+      <c r="L11" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="102"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="98"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="15">
@@ -4801,10 +4737,10 @@
       <c r="I12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="103" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="104"/>
+      <c r="J12" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="95"/>
       <c r="L12" s="30" t="s">
         <v>53</v>
       </c>
@@ -4842,18 +4778,18 @@
       <c r="I13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="103" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="104"/>
-      <c r="L13" s="83" t="s">
+      <c r="J13" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="95"/>
+      <c r="L13" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="85"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="89"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="15">
@@ -4883,18 +4819,18 @@
       <c r="I14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="103" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="104"/>
-      <c r="L14" s="100" t="s">
+      <c r="J14" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="95"/>
+      <c r="L14" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="102"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="98"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="15">
@@ -4924,18 +4860,18 @@
       <c r="I15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="103" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="104"/>
-      <c r="L15" s="100" t="s">
+      <c r="J15" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="95"/>
+      <c r="L15" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="102"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="98"/>
     </row>
     <row r="16" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="15">
@@ -4948,14 +4884,14 @@
       <c r="G16" s="16"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="102"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="98"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="15">
@@ -4969,14 +4905,14 @@
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="102"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="98"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="15">
@@ -4990,14 +4926,14 @@
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="106"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="106"/>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="106"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="15">
@@ -5011,14 +4947,14 @@
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="85"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="89"/>
     </row>
     <row r="20" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="15">
@@ -5032,14 +4968,14 @@
       <c r="G20" s="16"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="85"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="89"/>
     </row>
     <row r="21" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="15">
@@ -5053,14 +4989,14 @@
       <c r="G21" s="16"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="85"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="88"/>
+      <c r="Q21" s="89"/>
     </row>
     <row r="22" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="15">
@@ -5074,14 +5010,14 @@
       <c r="G22" s="16"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="85"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="89"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="15">
@@ -5095,14 +5031,14 @@
       <c r="G23" s="16"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="104"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="101"/>
-      <c r="O23" s="101"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="102"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="98"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="15">
@@ -5116,14 +5052,14 @@
       <c r="G24" s="16"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="104"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="108"/>
-      <c r="O24" s="108"/>
-      <c r="P24" s="108"/>
-      <c r="Q24" s="109"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="91"/>
+      <c r="P24" s="91"/>
+      <c r="Q24" s="92"/>
     </row>
     <row r="25" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="15"/>
@@ -5135,17 +5071,49 @@
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="105"/>
-      <c r="N25" s="105"/>
-      <c r="O25" s="105"/>
-      <c r="P25" s="105"/>
-      <c r="Q25" s="105"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:Q5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:Q21"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="L19:Q19"/>
     <mergeCell ref="J22:K22"/>
@@ -5162,38 +5130,6 @@
     <mergeCell ref="L14:Q14"/>
     <mergeCell ref="L13:Q13"/>
     <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:Q25"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:Q5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:Q11"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5205,8 +5141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C793F1B1-C6B7-414C-A142-32457320D7BB}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:K6"/>
+    <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5227,26 +5163,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="87"/>
+      <c r="B1" s="101"/>
       <c r="C1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90" t="s">
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
       <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
@@ -5256,30 +5192,30 @@
       <c r="O1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="91" t="s">
+      <c r="P1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="91"/>
+      <c r="Q1" s="105"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
       <c r="C2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92" t="s">
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
       <c r="M2" s="6" t="s">
         <v>8</v>
       </c>
@@ -5289,10 +5225,10 @@
       <c r="O2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="93">
+      <c r="P2" s="107">
         <v>45075</v>
       </c>
-      <c r="Q2" s="91"/>
+      <c r="Q2" s="105"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9"/>
@@ -5314,46 +5250,46 @@
       <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="95" t="s">
+      <c r="B4" s="108"/>
+      <c r="C4" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="94"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="19" t="s">
@@ -5383,18 +5319,18 @@
       <c r="I6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="96" t="s">
+      <c r="J6" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96" t="s">
+      <c r="K6" s="110"/>
+      <c r="L6" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="96"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="110"/>
+      <c r="Q6" s="110"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15">
@@ -5424,31 +5360,31 @@
       <c r="I7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="97" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="98"/>
-      <c r="L7" s="107" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="109"/>
+      <c r="J7" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="112"/>
+      <c r="L7" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="92"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15">
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>19</v>
@@ -5465,31 +5401,31 @@
       <c r="I8" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="103">
-        <v>0</v>
-      </c>
-      <c r="K8" s="104"/>
-      <c r="L8" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="102"/>
+      <c r="J8" s="94" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="95"/>
+      <c r="L8" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" s="97"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="98"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15">
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>78</v>
-      </c>
       <c r="D9" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>19</v>
@@ -5506,31 +5442,31 @@
       <c r="I9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="99"/>
-      <c r="L9" s="107" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="109"/>
+      <c r="J9" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="86"/>
+      <c r="L9" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="92"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15">
         <v>4</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>79</v>
-      </c>
       <c r="D10" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>19</v>
@@ -5547,28 +5483,28 @@
       <c r="I10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="99"/>
-      <c r="L10" s="107" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="109"/>
+      <c r="J10" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="86"/>
+      <c r="L10" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="92"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15">
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>42</v>
@@ -5588,59 +5524,59 @@
       <c r="I11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="103">
+      <c r="J11" s="94">
         <v>0</v>
       </c>
-      <c r="K11" s="104"/>
-      <c r="L11" s="100" t="s">
-        <v>82</v>
-      </c>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="102"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="96" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="98"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="15">
         <v>6</v>
       </c>
-      <c r="B12" s="111" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="111" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="111" t="s">
+      <c r="B12" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="112" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="112" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="113" t="s">
+      <c r="E12" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="112" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="112" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="114">
+      <c r="H12" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="113">
         <v>0</v>
       </c>
-      <c r="K12" s="115"/>
-      <c r="L12" s="116" t="s">
-        <v>115</v>
-      </c>
-      <c r="M12" s="117"/>
-      <c r="N12" s="117"/>
-      <c r="O12" s="117"/>
-      <c r="P12" s="117"/>
-      <c r="Q12" s="118"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="115" t="s">
+        <v>103</v>
+      </c>
+      <c r="M12" s="116"/>
+      <c r="N12" s="116"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="116"/>
+      <c r="Q12" s="117"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="15">
@@ -5654,14 +5590,14 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="109"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="92"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="15">
@@ -5675,14 +5611,14 @@
       <c r="G14" s="16"/>
       <c r="H14" s="17"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="109"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="92"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="15">
@@ -5696,14 +5632,14 @@
       <c r="G15" s="16"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="108"/>
-      <c r="N15" s="108"/>
-      <c r="O15" s="108"/>
-      <c r="P15" s="108"/>
-      <c r="Q15" s="109"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="92"/>
     </row>
     <row r="16" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="15">
@@ -5717,14 +5653,14 @@
       <c r="G16" s="16"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="102"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="98"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="15">
@@ -5738,14 +5674,14 @@
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="110"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="118"/>
+      <c r="Q17" s="118"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="15">
@@ -5759,14 +5695,14 @@
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="110"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="118"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="15">
@@ -5780,14 +5716,14 @@
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="102"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="97"/>
+      <c r="N19" s="97"/>
+      <c r="O19" s="97"/>
+      <c r="P19" s="97"/>
+      <c r="Q19" s="98"/>
     </row>
     <row r="20" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="15">
@@ -5801,14 +5737,14 @@
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="110"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="118"/>
     </row>
     <row r="21" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="15">
@@ -5822,14 +5758,14 @@
       <c r="G21" s="16"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="85"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="88"/>
+      <c r="Q21" s="89"/>
     </row>
     <row r="22" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="15">
@@ -5843,14 +5779,14 @@
       <c r="G22" s="16"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="85"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="89"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="15">
@@ -5864,14 +5800,14 @@
       <c r="G23" s="16"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="85"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="88"/>
+      <c r="Q23" s="89"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="15">
@@ -5885,14 +5821,14 @@
       <c r="G24" s="16"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="85"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="89"/>
     </row>
     <row r="25" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="15">
@@ -5906,14 +5842,14 @@
       <c r="G25" s="16"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="104"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="102"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="97"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="98"/>
     </row>
     <row r="26" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="15">
@@ -5927,14 +5863,14 @@
       <c r="G26" s="16"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="102"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="98"/>
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="15"/>
@@ -5946,54 +5882,17 @@
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="110"/>
-      <c r="N27" s="110"/>
-      <c r="O27" s="110"/>
-      <c r="P27" s="110"/>
-      <c r="Q27" s="110"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="118"/>
+      <c r="N27" s="118"/>
+      <c r="O27" s="118"/>
+      <c r="P27" s="118"/>
+      <c r="Q27" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:Q5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:Q19"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="L26:Q26"/>
     <mergeCell ref="J27:K27"/>
@@ -6010,6 +5909,43 @@
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="L21:Q21"/>
     <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:Q5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6018,11 +5954,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3998C9FE-338C-4010-86A1-51C4383A9724}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0185F17D-46BA-443C-A0B3-BC00B4CE583A}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J15" sqref="J15:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6043,26 +5979,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="87"/>
+      <c r="B1" s="101"/>
       <c r="C1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90" t="s">
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
       <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
@@ -6072,30 +6008,30 @@
       <c r="O1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="91" t="s">
+      <c r="P1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="91"/>
+      <c r="Q1" s="105"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
       <c r="C2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="92" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
+      <c r="D2" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
       <c r="M2" s="6" t="s">
         <v>8</v>
       </c>
@@ -6105,10 +6041,10 @@
       <c r="O2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="93">
+      <c r="P2" s="107">
         <v>45068</v>
       </c>
-      <c r="Q2" s="91"/>
+      <c r="Q2" s="105"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9"/>
@@ -6130,46 +6066,46 @@
       <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="95" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="109" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="94"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="19" t="s">
@@ -6199,34 +6135,34 @@
       <c r="I6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="96" t="s">
+      <c r="J6" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96" t="s">
+      <c r="K6" s="110"/>
+      <c r="L6" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="96"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="110"/>
+      <c r="Q6" s="110"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15">
         <v>1</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="E7" s="16">
+        <v>8</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>19</v>
@@ -6240,31 +6176,31 @@
       <c r="I7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="97" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="98"/>
-      <c r="L7" s="100" t="s">
-        <v>85</v>
-      </c>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="102"/>
+      <c r="J7" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="112"/>
+      <c r="L7" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="92"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15">
         <v>2</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>19</v>
@@ -6281,34 +6217,34 @@
       <c r="I8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="103" t="s">
+      <c r="J8" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="104"/>
-      <c r="L8" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="102"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="97"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="98"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15">
         <v>3</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="16">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>19</v>
@@ -6322,81 +6258,141 @@
       <c r="I9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="103" t="s">
+      <c r="J9" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="104"/>
-      <c r="L9" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="102"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="98"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15">
         <v>4</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="109"/>
+      <c r="B10" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="86"/>
+      <c r="L10" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="92"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15">
         <v>5</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="102"/>
+      <c r="B11" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="86"/>
+      <c r="L11" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="92"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="15">
         <v>6</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="109"/>
+      <c r="B12" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="16">
+        <v>255</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="86"/>
+      <c r="L12" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="92"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="15">
@@ -6410,14 +6406,14 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="109"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="92"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="15">
@@ -6431,14 +6427,14 @@
       <c r="G14" s="16"/>
       <c r="H14" s="17"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="109"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="92"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="15">
@@ -6452,14 +6448,14 @@
       <c r="G15" s="16"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="108"/>
-      <c r="N15" s="108"/>
-      <c r="O15" s="108"/>
-      <c r="P15" s="108"/>
-      <c r="Q15" s="109"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="92"/>
     </row>
     <row r="16" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="15">
@@ -6473,14 +6469,14 @@
       <c r="G16" s="16"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="102"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="98"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="15">
@@ -6494,14 +6490,14 @@
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="110"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="118"/>
+      <c r="Q17" s="118"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="15">
@@ -6515,14 +6511,14 @@
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="110"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="118"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="15">
@@ -6536,14 +6532,14 @@
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="102"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="97"/>
+      <c r="N19" s="97"/>
+      <c r="O19" s="97"/>
+      <c r="P19" s="97"/>
+      <c r="Q19" s="98"/>
     </row>
     <row r="20" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="15">
@@ -6557,14 +6553,14 @@
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="110"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="118"/>
     </row>
     <row r="21" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="15">
@@ -6578,14 +6574,14 @@
       <c r="G21" s="16"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="85"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="88"/>
+      <c r="Q21" s="89"/>
     </row>
     <row r="22" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="15">
@@ -6599,14 +6595,14 @@
       <c r="G22" s="16"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="85"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="89"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="15">
@@ -6620,14 +6616,14 @@
       <c r="G23" s="16"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="85"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="88"/>
+      <c r="Q23" s="89"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="15">
@@ -6641,14 +6637,14 @@
       <c r="G24" s="16"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="85"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="89"/>
     </row>
     <row r="25" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="15">
@@ -6662,14 +6658,14 @@
       <c r="G25" s="16"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="104"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="102"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="97"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="98"/>
     </row>
     <row r="26" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="15">
@@ -6683,14 +6679,14 @@
       <c r="G26" s="16"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="102"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="98"/>
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="15"/>
@@ -6702,17 +6698,60 @@
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="110"/>
-      <c r="N27" s="110"/>
-      <c r="O27" s="110"/>
-      <c r="P27" s="110"/>
-      <c r="Q27" s="110"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="118"/>
+      <c r="N27" s="118"/>
+      <c r="O27" s="118"/>
+      <c r="P27" s="118"/>
+      <c r="Q27" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:Q5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:Q22"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="L26:Q26"/>
     <mergeCell ref="J27:K27"/>
@@ -6723,865 +6762,6 @@
     <mergeCell ref="L24:Q24"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="L25:Q25"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:Q5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="P2:Q2"/>
-  </mergeCells>
-  <phoneticPr fontId="7"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0185F17D-46BA-443C-A0B3-BC00B4CE583A}">
-  <dimension ref="A1:Q27"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="3.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9" style="5"/>
-    <col min="5" max="9" width="4.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9" style="5"/>
-    <col min="11" max="11" width="7.25" style="5" customWidth="1"/>
-    <col min="12" max="12" width="5" style="5" customWidth="1"/>
-    <col min="13" max="13" width="9" style="5"/>
-    <col min="14" max="14" width="13.125" style="5" customWidth="1"/>
-    <col min="15" max="16" width="9" style="5"/>
-    <col min="17" max="17" width="3.625" style="5" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="90" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="91" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="91"/>
-    </row>
-    <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="92" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="8">
-        <v>45068</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="93">
-        <v>45068</v>
-      </c>
-      <c r="Q2" s="91"/>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="14"/>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="94" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="95" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="94"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-    </row>
-    <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="96"/>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="15">
-        <v>1</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="16">
-        <v>8</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="97" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="98"/>
-      <c r="L7" s="107" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="109"/>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="15">
-        <v>2</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="103" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="104"/>
-      <c r="L8" s="100" t="s">
-        <v>96</v>
-      </c>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="102"/>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="15">
-        <v>3</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="103" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="104"/>
-      <c r="L9" s="100" t="s">
-        <v>103</v>
-      </c>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="102"/>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="15">
-        <v>4</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="99"/>
-      <c r="L10" s="107" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="109"/>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="15">
-        <v>5</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="99"/>
-      <c r="L11" s="107" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108"/>
-      <c r="O11" s="108"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="109"/>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="15">
-        <v>6</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="16">
-        <v>255</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="99"/>
-      <c r="L12" s="107" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="109"/>
-    </row>
-    <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="15">
-        <v>7</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="109"/>
-    </row>
-    <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="15">
-        <v>8</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="109"/>
-    </row>
-    <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="15">
-        <v>9</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="108"/>
-      <c r="N15" s="108"/>
-      <c r="O15" s="108"/>
-      <c r="P15" s="108"/>
-      <c r="Q15" s="109"/>
-    </row>
-    <row r="16" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="15">
-        <v>10</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="102"/>
-    </row>
-    <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="15">
-        <v>11</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="110"/>
-    </row>
-    <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="15">
-        <v>12</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="110"/>
-    </row>
-    <row r="19" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="15">
-        <v>13</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="102"/>
-    </row>
-    <row r="20" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="15">
-        <v>14</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="110"/>
-    </row>
-    <row r="21" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="15">
-        <v>15</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="85"/>
-    </row>
-    <row r="22" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="15">
-        <v>16</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="85"/>
-    </row>
-    <row r="23" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="15">
-        <v>17</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="85"/>
-    </row>
-    <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="15">
-        <v>18</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="85"/>
-    </row>
-    <row r="25" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="15">
-        <v>19</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="104"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="102"/>
-    </row>
-    <row r="26" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="15">
-        <v>20</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="102"/>
-    </row>
-    <row r="27" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="110"/>
-      <c r="N27" s="110"/>
-      <c r="O27" s="110"/>
-      <c r="P27" s="110"/>
-      <c r="Q27" s="110"/>
-    </row>
-  </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:Q25"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:Q5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.設計書/3_DBテーブル定義書.xlsx
+++ b/1.設計書/3_DBテーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\レベルス\勤怠管理システム\dev\1.設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8903B3E0-B7AD-410F-8AE2-AC18E8A567F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DB0881-0E89-41F7-8596-6F58254542F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="0" windowWidth="22035" windowHeight="15480" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="165" yWindow="0" windowWidth="22035" windowHeight="15480" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="113">
   <si>
     <t>DB設計</t>
   </si>
@@ -640,6 +640,46 @@
     <t>消去</t>
     <rPh sb="0" eb="2">
       <t>ショウキョ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>申請状況区分</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>SHINSEI_STATUS_KBN</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>0:未確定、1:確定</t>
+    <rPh sb="2" eb="3">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>新規列追加</t>
+    <rPh sb="2" eb="3">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -1229,6 +1269,42 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1256,46 +1332,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1325,30 +1383,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1364,32 +1419,77 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1401,64 +1501,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1473,9 +1516,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2132,28 +2172,28 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="38"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="50"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
@@ -2163,26 +2203,26 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="41"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="53"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
@@ -2192,26 +2232,26 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="43"/>
-      <c r="AA14" s="44"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="56"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
@@ -2221,28 +2261,28 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="38"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="50"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
@@ -2252,26 +2292,26 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="41"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="53"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
@@ -2281,26 +2321,26 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="43"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="43"/>
-      <c r="AA17" s="44"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="55"/>
+      <c r="AA17" s="56"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
@@ -2514,28 +2554,28 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="45" t="s">
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="46"/>
-      <c r="Z25" s="47"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="38"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.4">
@@ -2547,24 +2587,24 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="50"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="41"/>
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
@@ -2576,28 +2616,28 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="45" t="s">
+      <c r="I27" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="45" t="s">
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="46"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="46"/>
-      <c r="Z27" s="47"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="38"/>
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
@@ -2609,24 +2649,24 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="49"/>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="49"/>
-      <c r="Z28" s="50"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="41"/>
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
@@ -2638,28 +2678,28 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="45" t="s">
+      <c r="I29" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="45" t="s">
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="47"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="38"/>
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
@@ -2671,24 +2711,24 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="49"/>
-      <c r="U30" s="49"/>
-      <c r="V30" s="49"/>
-      <c r="W30" s="49"/>
-      <c r="X30" s="49"/>
-      <c r="Y30" s="49"/>
-      <c r="Z30" s="50"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="40"/>
+      <c r="Z30" s="41"/>
       <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.4">
@@ -2700,28 +2740,28 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="45" t="s">
+      <c r="I31" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="51">
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="42">
         <v>45068</v>
       </c>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="53"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="44"/>
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
@@ -2733,24 +2773,24 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="55"/>
-      <c r="T32" s="55"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="56"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="47"/>
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.4">
@@ -2762,28 +2802,28 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="45" t="s">
+      <c r="I33" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="45" t="s">
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="46"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="47"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="38"/>
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.4">
@@ -2795,24 +2835,24 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="49"/>
-      <c r="V34" s="49"/>
-      <c r="W34" s="49"/>
-      <c r="X34" s="49"/>
-      <c r="Y34" s="49"/>
-      <c r="Z34" s="50"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="41"/>
       <c r="AA34" s="2"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.4">
@@ -2824,28 +2864,28 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="45" t="s">
+      <c r="I35" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="51">
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="42">
         <v>45068</v>
       </c>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="52"/>
-      <c r="Z35" s="53"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="43"/>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="44"/>
       <c r="AA35" s="2"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.4">
@@ -2857,28 +2897,34 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="55"/>
-      <c r="T36" s="55"/>
-      <c r="U36" s="55"/>
-      <c r="V36" s="55"/>
-      <c r="W36" s="55"/>
-      <c r="X36" s="55"/>
-      <c r="Y36" s="55"/>
-      <c r="Z36" s="56"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="46"/>
+      <c r="V36" s="46"/>
+      <c r="W36" s="46"/>
+      <c r="X36" s="46"/>
+      <c r="Y36" s="46"/>
+      <c r="Z36" s="47"/>
       <c r="AA36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H12:AA14"/>
+    <mergeCell ref="H15:AA17"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
+    <mergeCell ref="I27:N28"/>
+    <mergeCell ref="O27:Z28"/>
     <mergeCell ref="I35:N36"/>
     <mergeCell ref="O35:Z36"/>
     <mergeCell ref="I29:N30"/>
@@ -2887,12 +2933,6 @@
     <mergeCell ref="O31:Z32"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
-    <mergeCell ref="H12:AA14"/>
-    <mergeCell ref="H15:AA17"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
-    <mergeCell ref="I27:N28"/>
-    <mergeCell ref="O27:Z28"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2945,14 +2985,14 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="61"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="67"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -2970,12 +3010,12 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="70"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -2993,12 +3033,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="73"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -3032,379 +3072,379 @@
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
     </row>
     <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
     </row>
     <row r="8" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
     </row>
     <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
     </row>
     <row r="10" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
     </row>
     <row r="12" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
     </row>
     <row r="13" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
     </row>
     <row r="15" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
     </row>
     <row r="16" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="58"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
     </row>
     <row r="17" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="58"/>
-      <c r="U17" s="58"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
     </row>
     <row r="18" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
     </row>
     <row r="19" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
     </row>
     <row r="20" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="58"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
     </row>
     <row r="21" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="58"/>
-      <c r="T21" s="58"/>
-      <c r="U21" s="58"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
     </row>
     <row r="22" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
@@ -3730,30 +3770,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="G18:K19"/>
-    <mergeCell ref="L18:P19"/>
-    <mergeCell ref="Q18:U19"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="G20:K21"/>
-    <mergeCell ref="L20:P21"/>
-    <mergeCell ref="Q20:U21"/>
-    <mergeCell ref="B14:F15"/>
-    <mergeCell ref="G14:K15"/>
-    <mergeCell ref="L14:P15"/>
-    <mergeCell ref="Q14:U15"/>
-    <mergeCell ref="B16:F17"/>
-    <mergeCell ref="G16:K17"/>
-    <mergeCell ref="L16:P17"/>
-    <mergeCell ref="Q16:U17"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="G10:K11"/>
-    <mergeCell ref="L10:P11"/>
-    <mergeCell ref="Q10:U11"/>
-    <mergeCell ref="B12:F13"/>
-    <mergeCell ref="G12:K13"/>
-    <mergeCell ref="L12:P13"/>
-    <mergeCell ref="Q12:U13"/>
     <mergeCell ref="B8:F9"/>
     <mergeCell ref="G8:K9"/>
     <mergeCell ref="L8:P9"/>
@@ -3763,6 +3779,30 @@
     <mergeCell ref="G6:K7"/>
     <mergeCell ref="L6:P7"/>
     <mergeCell ref="Q6:U7"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="G10:K11"/>
+    <mergeCell ref="L10:P11"/>
+    <mergeCell ref="Q10:U11"/>
+    <mergeCell ref="B12:F13"/>
+    <mergeCell ref="G12:K13"/>
+    <mergeCell ref="L12:P13"/>
+    <mergeCell ref="Q12:U13"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="G14:K15"/>
+    <mergeCell ref="L14:P15"/>
+    <mergeCell ref="Q14:U15"/>
+    <mergeCell ref="B16:F17"/>
+    <mergeCell ref="G16:K17"/>
+    <mergeCell ref="L16:P17"/>
+    <mergeCell ref="Q16:U17"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="G18:K19"/>
+    <mergeCell ref="L18:P19"/>
+    <mergeCell ref="Q18:U19"/>
+    <mergeCell ref="B20:F21"/>
+    <mergeCell ref="G20:K21"/>
+    <mergeCell ref="L20:P21"/>
+    <mergeCell ref="Q20:U21"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <hyperlinks>
@@ -3781,7 +3821,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:I10"/>
+      <selection activeCell="H11" sqref="H11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3796,40 +3836,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
       <c r="I1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="78"/>
+      <c r="K1" s="83"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
       <c r="I2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="79">
+      <c r="J2" s="84">
         <v>45068</v>
       </c>
-      <c r="K2" s="78"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="29"/>
@@ -3854,22 +3894,22 @@
       <c r="C4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80" t="s">
+      <c r="E4" s="85"/>
+      <c r="F4" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80" t="s">
+      <c r="G4" s="85"/>
+      <c r="H4" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="80"/>
+      <c r="K4" s="85"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="26">
@@ -3893,7 +3933,7 @@
         <v>18</v>
       </c>
       <c r="I5" s="75"/>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="80" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="74"/>
@@ -3920,7 +3960,7 @@
         <v>18</v>
       </c>
       <c r="I6" s="75"/>
-      <c r="J6" s="81" t="s">
+      <c r="J6" s="80" t="s">
         <v>19</v>
       </c>
       <c r="K6" s="74"/>
@@ -3947,7 +3987,7 @@
         <v>18</v>
       </c>
       <c r="I7" s="75"/>
-      <c r="J7" s="81" t="s">
+      <c r="J7" s="80" t="s">
         <v>19</v>
       </c>
       <c r="K7" s="74"/>
@@ -3974,7 +4014,7 @@
         <v>18</v>
       </c>
       <c r="I8" s="75"/>
-      <c r="J8" s="81" t="s">
+      <c r="J8" s="80" t="s">
         <v>19</v>
       </c>
       <c r="K8" s="74"/>
@@ -4001,7 +4041,7 @@
         <v>108</v>
       </c>
       <c r="I9" s="75"/>
-      <c r="J9" s="81" t="s">
+      <c r="J9" s="80" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="74"/>
@@ -4010,15 +4050,27 @@
       <c r="A10" s="26">
         <v>6</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="74"/>
+      <c r="B10" s="25">
+        <v>45104</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" s="75"/>
+      <c r="J10" s="80" t="s">
+        <v>19</v>
+      </c>
       <c r="K10" s="74"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4031,8 +4083,8 @@
       <c r="E11" s="74"/>
       <c r="F11" s="74"/>
       <c r="G11" s="74"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
       <c r="J11" s="74"/>
       <c r="K11" s="74"/>
     </row>
@@ -4057,12 +4109,12 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="26"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="84"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="77"/>
       <c r="H13" s="75"/>
-      <c r="I13" s="85"/>
+      <c r="I13" s="78"/>
       <c r="J13" s="74"/>
       <c r="K13" s="74"/>
     </row>
@@ -4218,6 +4270,78 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
@@ -4230,78 +4354,6 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4313,8 +4365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9079E9D9-E539-4474-A075-37C1D8053EAD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4335,26 +4387,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="101"/>
+      <c r="B1" s="90"/>
       <c r="C1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104" t="s">
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
       <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
@@ -4364,30 +4416,30 @@
       <c r="O1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="105" t="s">
+      <c r="P1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="105"/>
+      <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="92"/>
       <c r="C2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106" t="s">
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
       <c r="M2" s="6" t="s">
         <v>8</v>
       </c>
@@ -4397,10 +4449,10 @@
       <c r="O2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="107">
+      <c r="P2" s="96">
         <v>45068</v>
       </c>
-      <c r="Q2" s="105"/>
+      <c r="Q2" s="94"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9"/>
@@ -4422,46 +4474,46 @@
       <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="109" t="s">
+      <c r="B4" s="97"/>
+      <c r="C4" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="106"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="108"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="19" t="s">
@@ -4491,18 +4543,18 @@
       <c r="I6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="110" t="s">
+      <c r="J6" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110" t="s">
+      <c r="K6" s="99"/>
+      <c r="L6" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="110"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15">
@@ -4532,18 +4584,18 @@
       <c r="I7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="111" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="112"/>
-      <c r="L7" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="92"/>
+      <c r="J7" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="101"/>
+      <c r="L7" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="112"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15">
@@ -4573,18 +4625,18 @@
       <c r="I8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="86"/>
-      <c r="L8" s="93" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
+      <c r="J8" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="102"/>
+      <c r="L8" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="109"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15">
@@ -4614,18 +4666,18 @@
       <c r="I9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="86"/>
-      <c r="L9" s="93" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
+      <c r="J9" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="102"/>
+      <c r="L9" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15">
@@ -4655,18 +4707,18 @@
       <c r="I10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="86"/>
-      <c r="L10" s="93" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="93"/>
+      <c r="J10" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="102"/>
+      <c r="L10" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15">
@@ -4696,18 +4748,18 @@
       <c r="I11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="86"/>
-      <c r="L11" s="96" t="s">
+      <c r="J11" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="102"/>
+      <c r="L11" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="97"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="98"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="105"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="15">
@@ -4737,10 +4789,10 @@
       <c r="I12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="95"/>
+      <c r="J12" s="106" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="107"/>
       <c r="L12" s="30" t="s">
         <v>53</v>
       </c>
@@ -4778,18 +4830,18 @@
       <c r="I13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="95"/>
-      <c r="L13" s="87" t="s">
+      <c r="J13" s="106" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="107"/>
+      <c r="L13" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="M13" s="88"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="88"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="89"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="88"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="15">
@@ -4819,18 +4871,18 @@
       <c r="I14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="95"/>
-      <c r="L14" s="96" t="s">
+      <c r="J14" s="106" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="107"/>
+      <c r="L14" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="M14" s="97"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="98"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="105"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="15">
@@ -4860,18 +4912,18 @@
       <c r="I15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="95"/>
-      <c r="L15" s="96" t="s">
+      <c r="J15" s="106" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="107"/>
+      <c r="L15" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="M15" s="97"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="98"/>
+      <c r="M15" s="104"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="105"/>
     </row>
     <row r="16" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="15">
@@ -4884,14 +4936,14 @@
       <c r="G16" s="16"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="98"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="105"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="15">
@@ -4905,14 +4957,14 @@
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="97"/>
-      <c r="N17" s="97"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="98"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="105"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="15">
@@ -4926,14 +4978,14 @@
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="109"/>
+      <c r="M18" s="109"/>
+      <c r="N18" s="109"/>
+      <c r="O18" s="109"/>
+      <c r="P18" s="109"/>
+      <c r="Q18" s="109"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="15">
@@ -4947,14 +4999,14 @@
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="89"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="88"/>
     </row>
     <row r="20" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="15">
@@ -4968,14 +5020,14 @@
       <c r="G20" s="16"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="89"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="88"/>
     </row>
     <row r="21" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="15">
@@ -4989,14 +5041,14 @@
       <c r="G21" s="16"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="89"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="88"/>
     </row>
     <row r="22" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="15">
@@ -5010,14 +5062,14 @@
       <c r="G22" s="16"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="89"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="88"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="15">
@@ -5031,14 +5083,14 @@
       <c r="G23" s="16"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="98"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="103"/>
+      <c r="M23" s="104"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="105"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="15">
@@ -5052,14 +5104,14 @@
       <c r="G24" s="16"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="91"/>
-      <c r="P24" s="91"/>
-      <c r="Q24" s="92"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="112"/>
     </row>
     <row r="25" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="15"/>
@@ -5071,17 +5123,49 @@
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="99"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="108"/>
+      <c r="Q25" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:Q21"/>
     <mergeCell ref="L22:Q22"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:H1"/>
@@ -5098,38 +5182,6 @@
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:Q25"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="J15:K15"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5142,7 +5194,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="L18" sqref="L18:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5163,26 +5215,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="101"/>
+      <c r="B1" s="90"/>
       <c r="C1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104" t="s">
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
       <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
@@ -5192,30 +5244,30 @@
       <c r="O1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="105" t="s">
+      <c r="P1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="105"/>
+      <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="92"/>
       <c r="C2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106" t="s">
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
       <c r="M2" s="6" t="s">
         <v>8</v>
       </c>
@@ -5225,10 +5277,10 @@
       <c r="O2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="107">
+      <c r="P2" s="96">
         <v>45075</v>
       </c>
-      <c r="Q2" s="105"/>
+      <c r="Q2" s="94"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9"/>
@@ -5250,46 +5302,46 @@
       <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="109" t="s">
+      <c r="B4" s="97"/>
+      <c r="C4" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="106"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="108"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="19" t="s">
@@ -5319,18 +5371,18 @@
       <c r="I6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="110" t="s">
+      <c r="J6" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110" t="s">
+      <c r="K6" s="99"/>
+      <c r="L6" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="110"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15">
@@ -5360,18 +5412,18 @@
       <c r="I7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="111" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="112"/>
-      <c r="L7" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="92"/>
+      <c r="J7" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="101"/>
+      <c r="L7" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="112"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15">
@@ -5401,18 +5453,18 @@
       <c r="I8" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="94" t="s">
+      <c r="J8" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="95"/>
-      <c r="L8" s="96" t="s">
+      <c r="K8" s="107"/>
+      <c r="L8" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="98"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="105"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15">
@@ -5442,18 +5494,18 @@
       <c r="I9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="86"/>
-      <c r="L9" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="92"/>
+      <c r="J9" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="102"/>
+      <c r="L9" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="112"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15">
@@ -5483,18 +5535,18 @@
       <c r="I10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="86"/>
-      <c r="L10" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="92"/>
+      <c r="J10" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="102"/>
+      <c r="L10" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="112"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15">
@@ -5524,18 +5576,18 @@
       <c r="I11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="94">
+      <c r="J11" s="106">
         <v>0</v>
       </c>
-      <c r="K11" s="95"/>
-      <c r="L11" s="96" t="s">
+      <c r="K11" s="107"/>
+      <c r="L11" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="M11" s="97"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="98"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="105"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="15">
@@ -5565,18 +5617,18 @@
       <c r="I12" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="113">
+      <c r="J12" s="114">
         <v>0</v>
       </c>
-      <c r="K12" s="114"/>
-      <c r="L12" s="115" t="s">
+      <c r="K12" s="115"/>
+      <c r="L12" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="M12" s="116"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="116"/>
-      <c r="P12" s="116"/>
-      <c r="Q12" s="117"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="118"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="15">
@@ -5590,14 +5642,14 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="92"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="112"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="15">
@@ -5611,14 +5663,14 @@
       <c r="G14" s="16"/>
       <c r="H14" s="17"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="92"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="112"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="15">
@@ -5632,14 +5684,14 @@
       <c r="G15" s="16"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="92"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="112"/>
     </row>
     <row r="16" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="15">
@@ -5653,14 +5705,14 @@
       <c r="G16" s="16"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="98"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="105"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="15">
@@ -5674,14 +5726,14 @@
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="118"/>
-      <c r="N17" s="118"/>
-      <c r="O17" s="118"/>
-      <c r="P17" s="118"/>
-      <c r="Q17" s="118"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="113"/>
+      <c r="Q17" s="113"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="15">
@@ -5695,14 +5747,14 @@
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="118"/>
-      <c r="P18" s="118"/>
-      <c r="Q18" s="118"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="113"/>
+      <c r="O18" s="113"/>
+      <c r="P18" s="113"/>
+      <c r="Q18" s="113"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="15">
@@ -5716,14 +5768,14 @@
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="97"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="97"/>
-      <c r="P19" s="97"/>
-      <c r="Q19" s="98"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="104"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="104"/>
+      <c r="P19" s="104"/>
+      <c r="Q19" s="105"/>
     </row>
     <row r="20" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="15">
@@ -5737,14 +5789,14 @@
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="118"/>
-      <c r="O20" s="118"/>
-      <c r="P20" s="118"/>
-      <c r="Q20" s="118"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="113"/>
+      <c r="Q20" s="113"/>
     </row>
     <row r="21" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="15">
@@ -5758,14 +5810,14 @@
       <c r="G21" s="16"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="89"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="88"/>
     </row>
     <row r="22" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="15">
@@ -5779,14 +5831,14 @@
       <c r="G22" s="16"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="89"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="88"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="15">
@@ -5800,14 +5852,14 @@
       <c r="G23" s="16"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="89"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="88"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="15">
@@ -5821,14 +5873,14 @@
       <c r="G24" s="16"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="89"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="88"/>
     </row>
     <row r="25" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="15">
@@ -5842,14 +5894,14 @@
       <c r="G25" s="16"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="98"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="104"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="105"/>
     </row>
     <row r="26" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="15">
@@ -5863,14 +5915,14 @@
       <c r="G26" s="16"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="97"/>
-      <c r="Q26" s="98"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="104"/>
+      <c r="N26" s="104"/>
+      <c r="O26" s="104"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="105"/>
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="15"/>
@@ -5882,17 +5934,54 @@
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="118"/>
-      <c r="N27" s="118"/>
-      <c r="O27" s="118"/>
-      <c r="P27" s="118"/>
-      <c r="Q27" s="118"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="113"/>
+      <c r="N27" s="113"/>
+      <c r="O27" s="113"/>
+      <c r="P27" s="113"/>
+      <c r="Q27" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:Q5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:Q19"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="L26:Q26"/>
     <mergeCell ref="J27:K27"/>
@@ -5909,43 +5998,6 @@
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="L21:Q21"/>
     <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:Q5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5957,8 +6009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0185F17D-46BA-443C-A0B3-BC00B4CE583A}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15:K15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5979,26 +6031,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="101"/>
+      <c r="B1" s="90"/>
       <c r="C1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104" t="s">
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
       <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
@@ -6008,30 +6060,30 @@
       <c r="O1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="105" t="s">
+      <c r="P1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="105"/>
+      <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="92"/>
       <c r="C2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106" t="s">
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
       <c r="M2" s="6" t="s">
         <v>8</v>
       </c>
@@ -6041,10 +6093,10 @@
       <c r="O2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="107">
+      <c r="P2" s="96">
         <v>45068</v>
       </c>
-      <c r="Q2" s="105"/>
+      <c r="Q2" s="94"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9"/>
@@ -6066,46 +6118,46 @@
       <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="109" t="s">
+      <c r="B4" s="97"/>
+      <c r="C4" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="106"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="108"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
     </row>
     <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="19" t="s">
@@ -6135,18 +6187,18 @@
       <c r="I6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="110" t="s">
+      <c r="J6" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110" t="s">
+      <c r="K6" s="99"/>
+      <c r="L6" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="110"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15">
@@ -6176,18 +6228,18 @@
       <c r="I7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="111" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="112"/>
-      <c r="L7" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="92"/>
+      <c r="J7" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="101"/>
+      <c r="L7" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="112"/>
     </row>
     <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15">
@@ -6217,18 +6269,18 @@
       <c r="I8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="94" t="s">
+      <c r="J8" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="95"/>
-      <c r="L8" s="96" t="s">
+      <c r="K8" s="107"/>
+      <c r="L8" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="98"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="105"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15">
@@ -6258,18 +6310,18 @@
       <c r="I9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="94" t="s">
+      <c r="J9" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="95"/>
-      <c r="L9" s="96" t="s">
+      <c r="K9" s="107"/>
+      <c r="L9" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="98"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="105"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15">
@@ -6299,18 +6351,18 @@
       <c r="I10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="86"/>
-      <c r="L10" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="92"/>
+      <c r="J10" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="102"/>
+      <c r="L10" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="112"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15">
@@ -6340,18 +6392,18 @@
       <c r="I11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="86"/>
-      <c r="L11" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="92"/>
+      <c r="J11" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="102"/>
+      <c r="L11" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="112"/>
     </row>
     <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="15">
@@ -6381,39 +6433,59 @@
       <c r="I12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="86"/>
-      <c r="L12" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="91"/>
-      <c r="P12" s="91"/>
-      <c r="Q12" s="92"/>
+      <c r="J12" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="102"/>
+      <c r="L12" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="112"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="15">
         <v>7</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="92"/>
+      <c r="B13" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="106" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="107"/>
+      <c r="L13" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="105"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="15">
@@ -6427,14 +6499,14 @@
       <c r="G14" s="16"/>
       <c r="H14" s="17"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="92"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="112"/>
     </row>
     <row r="15" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="15">
@@ -6448,14 +6520,14 @@
       <c r="G15" s="16"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="92"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="112"/>
     </row>
     <row r="16" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="15">
@@ -6469,14 +6541,14 @@
       <c r="G16" s="16"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="98"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="105"/>
     </row>
     <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="15">
@@ -6490,14 +6562,14 @@
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="118"/>
-      <c r="N17" s="118"/>
-      <c r="O17" s="118"/>
-      <c r="P17" s="118"/>
-      <c r="Q17" s="118"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="113"/>
+      <c r="Q17" s="113"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="15">
@@ -6511,14 +6583,14 @@
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="118"/>
-      <c r="P18" s="118"/>
-      <c r="Q18" s="118"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="113"/>
+      <c r="O18" s="113"/>
+      <c r="P18" s="113"/>
+      <c r="Q18" s="113"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="15">
@@ -6532,14 +6604,14 @@
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="97"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="97"/>
-      <c r="P19" s="97"/>
-      <c r="Q19" s="98"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="104"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="104"/>
+      <c r="P19" s="104"/>
+      <c r="Q19" s="105"/>
     </row>
     <row r="20" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="15">
@@ -6553,14 +6625,14 @@
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="118"/>
-      <c r="O20" s="118"/>
-      <c r="P20" s="118"/>
-      <c r="Q20" s="118"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="113"/>
+      <c r="Q20" s="113"/>
     </row>
     <row r="21" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="15">
@@ -6574,14 +6646,14 @@
       <c r="G21" s="16"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="89"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="88"/>
     </row>
     <row r="22" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="15">
@@ -6595,14 +6667,14 @@
       <c r="G22" s="16"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="89"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="88"/>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="15">
@@ -6616,14 +6688,14 @@
       <c r="G23" s="16"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="89"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="88"/>
     </row>
     <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="15">
@@ -6637,14 +6709,14 @@
       <c r="G24" s="16"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="89"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="88"/>
     </row>
     <row r="25" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="15">
@@ -6658,14 +6730,14 @@
       <c r="G25" s="16"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="98"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="104"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="105"/>
     </row>
     <row r="26" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="15">
@@ -6679,14 +6751,14 @@
       <c r="G26" s="16"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="97"/>
-      <c r="Q26" s="98"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="104"/>
+      <c r="N26" s="104"/>
+      <c r="O26" s="104"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="105"/>
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="15"/>
@@ -6698,60 +6770,17 @@
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="118"/>
-      <c r="N27" s="118"/>
-      <c r="O27" s="118"/>
-      <c r="P27" s="118"/>
-      <c r="Q27" s="118"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="113"/>
+      <c r="N27" s="113"/>
+      <c r="O27" s="113"/>
+      <c r="P27" s="113"/>
+      <c r="Q27" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:Q5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:Q22"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="L26:Q26"/>
     <mergeCell ref="J27:K27"/>
@@ -6762,6 +6791,49 @@
     <mergeCell ref="L24:Q24"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:Q5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
